--- a/production_recipe_management_tool_v1.1/data/Recipes/250_pieces_Chicken Basic Momo 25 Gm.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/250_pieces_Chicken Basic Momo 25 Gm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool_v1.1\data\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/Recipes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1955B083-3817-42D4-8273-C2DCE24E38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1955B083-3817-42D4-8273-C2DCE24E38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E250D66E-507F-4150-BB6F-2A07BC351023}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>Dry Soy Chunk</t>
-  </si>
-  <si>
     <t>Chicken Skin</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Maida</t>
+  </si>
+  <si>
+    <t>Wet Soy</t>
   </si>
 </sst>
 </file>
@@ -190,6 +190,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,7 +462,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +496,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>500</v>
@@ -529,18 +533,18 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -552,17 +556,17 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -576,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -588,14 +592,14 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -614,12 +618,12 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -633,7 +637,7 @@
         <v>1.4941176470588236</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -652,7 +656,7 @@
         <v>0.27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -677,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -685,7 +689,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -694,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -702,76 +706,78 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>23.099999999999998</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>0.15</v>
+        <f>(150/1000)/3</f>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>22.499999999999996</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>250</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>1250</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>0.12</v>
+        <f>90/1000</f>
+        <v>0.09</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>B16*D16</f>
+        <v>112.5</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>2500</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <f>41/1000</f>
-        <v>4.1000000000000002E-2</v>
+        <f>37/1000</f>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>102.5</v>
+        <v>92.5</v>
       </c>
       <c r="F17" s="2"/>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Recipes/250_pieces_Chicken Basic Momo 25 Gm.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/250_pieces_Chicken Basic Momo 25 Gm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/Recipes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1955B083-3817-42D4-8273-C2DCE24E38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E250D66E-507F-4150-BB6F-2A07BC351023}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{1955B083-3817-42D4-8273-C2DCE24E38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA66BBCB-EFA5-4FC2-8E01-415FDE42DEC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -524,7 +524,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E17" si="0">B3*D3</f>
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -537,11 +537,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -556,11 +556,11 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -596,7 +596,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -615,7 +615,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
@@ -737,11 +737,11 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
     </row>
